--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.012721.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.012721.xlsx_with_dialog_acts.xlsx
@@ -559,12 +559,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3045,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3339,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3423,12 +3423,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4733,12 +4733,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5875,12 +5875,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5959,12 +5959,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6001,12 +6001,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6085,12 +6085,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6253,12 +6253,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6967,12 +6967,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7429,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7597,12 +7597,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9205,12 +9205,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9289,12 +9289,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9667,12 +9667,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10133,12 +10133,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10427,12 +10427,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10721,12 +10721,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10847,12 +10847,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11225,12 +11225,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11351,12 +11351,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11393,12 +11393,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11775,12 +11775,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11943,12 +11943,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12031,12 +12031,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12241,12 +12241,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13837,12 +13837,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14383,12 +14383,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14761,12 +14761,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14803,12 +14803,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15513,12 +15513,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15713,12 +15713,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16553,12 +16553,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16713,12 +16713,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17273,12 +17273,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17313,12 +17313,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17997,12 +17997,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18357,12 +18357,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18397,12 +18397,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18517,12 +18517,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18557,12 +18557,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18717,12 +18717,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
